--- a/curation/draft/package13/R13_BC_SDTM_QRS_CHILD-PUGH.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_CHILD-PUGH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85566609-467C-4484-AF47-05A755F7286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6AABB-2ED3-4E1C-A6A9-F940A075894E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_Child-Pugh" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_Child-Pugh'!$A$1:$S$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_Child-Pugh'!$A$1:$AG$66</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -526,9 +526,6 @@
     <t>PERFORMS</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>RSDTC</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>Ordinal</t>
+  </si>
+  <si>
+    <t>CCCAT</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
@@ -1198,7 +1198,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>48</v>
@@ -1207,15 +1207,15 @@
         <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>134</v>
@@ -1232,17 +1232,17 @@
         <v>134</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>51</v>
@@ -1277,7 +1277,7 @@
         <v>53</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>54</v>
@@ -1315,7 +1315,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>51</v>
@@ -1327,7 +1327,7 @@
         <v>53</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>58</v>
@@ -1365,7 +1365,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>51</v>
@@ -1377,7 +1377,7 @@
         <v>53</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>62</v>
@@ -1415,7 +1415,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>51</v>
@@ -1427,7 +1427,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>67</v>
@@ -1462,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>51</v>
@@ -1474,7 +1474,7 @@
         <v>53</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>70</v>
@@ -1512,7 +1512,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>76</v>
@@ -1524,7 +1524,7 @@
         <v>53</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>54</v>
@@ -1562,7 +1562,7 @@
         <v>75</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>76</v>
@@ -1574,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>58</v>
@@ -1612,7 +1612,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>76</v>
@@ -1624,7 +1624,7 @@
         <v>53</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>62</v>
@@ -1662,7 +1662,7 @@
         <v>75</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>76</v>
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>67</v>
@@ -1709,7 +1709,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
@@ -1721,7 +1721,7 @@
         <v>53</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>70</v>
@@ -1759,7 +1759,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>81</v>
@@ -1771,7 +1771,7 @@
         <v>53</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>54</v>
@@ -1809,7 +1809,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>81</v>
@@ -1821,7 +1821,7 @@
         <v>53</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>58</v>
@@ -1859,7 +1859,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>81</v>
@@ -1871,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>62</v>
@@ -1909,7 +1909,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>81</v>
@@ -1921,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>65</v>
@@ -1959,7 +1959,7 @@
         <v>80</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>81</v>
@@ -1971,7 +1971,7 @@
         <v>53</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>67</v>
@@ -2006,7 +2006,7 @@
         <v>80</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>81</v>
@@ -2018,7 +2018,7 @@
         <v>53</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>70</v>
@@ -2056,7 +2056,7 @@
         <v>86</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>87</v>
@@ -2068,7 +2068,7 @@
         <v>53</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>87</v>
@@ -2118,7 +2118,7 @@
         <v>53</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>58</v>
@@ -2156,7 +2156,7 @@
         <v>86</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>87</v>
@@ -2168,7 +2168,7 @@
         <v>53</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>62</v>
@@ -2206,7 +2206,7 @@
         <v>86</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>87</v>
@@ -2218,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>65</v>
@@ -2256,7 +2256,7 @@
         <v>86</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>87</v>
@@ -2268,7 +2268,7 @@
         <v>53</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>67</v>
@@ -2303,7 +2303,7 @@
         <v>86</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>87</v>
@@ -2315,7 +2315,7 @@
         <v>53</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>70</v>
@@ -2353,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>93</v>
@@ -2365,7 +2365,7 @@
         <v>53</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>54</v>
@@ -2403,7 +2403,7 @@
         <v>92</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>93</v>
@@ -2415,7 +2415,7 @@
         <v>53</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>58</v>
@@ -2453,7 +2453,7 @@
         <v>92</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>93</v>
@@ -2465,7 +2465,7 @@
         <v>53</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>62</v>
@@ -2503,7 +2503,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>93</v>
@@ -2515,16 +2515,16 @@
         <v>53</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>60</v>
@@ -2553,7 +2553,7 @@
         <v>92</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>93</v>
@@ -2565,7 +2565,7 @@
         <v>53</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>67</v>
@@ -2600,7 +2600,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>93</v>
@@ -2612,7 +2612,7 @@
         <v>53</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>70</v>
@@ -2650,7 +2650,7 @@
         <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>99</v>
@@ -2662,7 +2662,7 @@
         <v>53</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>54</v>
@@ -2700,7 +2700,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>99</v>
@@ -2712,7 +2712,7 @@
         <v>53</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>58</v>
@@ -2750,7 +2750,7 @@
         <v>98</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>99</v>
@@ -2762,7 +2762,7 @@
         <v>53</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>62</v>
@@ -2800,7 +2800,7 @@
         <v>98</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>99</v>
@@ -2812,7 +2812,7 @@
         <v>53</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>67</v>
@@ -2847,7 +2847,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>99</v>
@@ -2859,7 +2859,7 @@
         <v>53</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>70</v>
@@ -2897,7 +2897,7 @@
         <v>108</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>109</v>
@@ -2909,7 +2909,7 @@
         <v>53</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>54</v>
@@ -2944,7 +2944,7 @@
         <v>108</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>109</v>
@@ -2956,7 +2956,7 @@
         <v>53</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>58</v>
@@ -2991,7 +2991,7 @@
         <v>108</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>109</v>
@@ -3003,7 +3003,7 @@
         <v>53</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>62</v>
@@ -3041,7 +3041,7 @@
         <v>108</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>109</v>
@@ -3053,7 +3053,7 @@
         <v>53</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>67</v>
@@ -3088,7 +3088,7 @@
         <v>108</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>109</v>
@@ -3100,7 +3100,7 @@
         <v>53</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>70</v>
@@ -3138,7 +3138,7 @@
         <v>103</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>104</v>
@@ -3179,7 +3179,7 @@
         <v>103</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>104</v>
@@ -3220,7 +3220,7 @@
         <v>103</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>104</v>
@@ -3258,7 +3258,7 @@
         <v>103</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>104</v>
@@ -3290,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView topLeftCell="K32" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,7 +3609,7 @@
         <v>133</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>134</v>
@@ -3935,7 +3935,7 @@
         <v>150</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -3964,19 +3964,19 @@
         <v>115</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>116</v>
@@ -4011,10 +4011,10 @@
         <v>113</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>116</v>
@@ -4029,7 +4029,7 @@
         <v>73</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>119</v>
@@ -4082,10 +4082,10 @@
         <v>113</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>122</v>
@@ -4100,7 +4100,7 @@
         <v>73</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>129</v>
@@ -4159,10 +4159,10 @@
         <v>113</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>132</v>
@@ -4171,7 +4171,7 @@
         <v>133</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>134</v>
@@ -4233,19 +4233,19 @@
         <v>113</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>129</v>
@@ -4307,19 +4307,19 @@
         <v>113</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>129</v>
@@ -4378,19 +4378,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>154</v>
       </c>
       <c r="L15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>129</v>
@@ -4449,10 +4449,10 @@
         <v>113</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>155</v>
@@ -4497,7 +4497,7 @@
         <v>150</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -4520,25 +4520,25 @@
         <v>113</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="J17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="S17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>116</v>
@@ -4573,10 +4573,10 @@
         <v>113</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>116</v>
@@ -4591,7 +4591,7 @@
         <v>78</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>119</v>
@@ -4644,10 +4644,10 @@
         <v>113</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>122</v>
@@ -4662,7 +4662,7 @@
         <v>78</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>129</v>
@@ -4721,10 +4721,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>132</v>
@@ -4733,7 +4733,7 @@
         <v>133</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>134</v>
@@ -4795,19 +4795,19 @@
         <v>113</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>129</v>
@@ -4869,22 +4869,22 @@
         <v>113</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>146</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>83</v>
@@ -4943,19 +4943,19 @@
         <v>113</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>129</v>
@@ -5014,19 +5014,19 @@
         <v>113</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>154</v>
       </c>
       <c r="L24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>129</v>
@@ -5085,10 +5085,10 @@
         <v>113</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>155</v>
@@ -5133,7 +5133,7 @@
         <v>150</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -5156,25 +5156,25 @@
         <v>113</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="J26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="S26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>116</v>
@@ -5209,10 +5209,10 @@
         <v>113</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>116</v>
@@ -5227,7 +5227,7 @@
         <v>84</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>119</v>
@@ -5280,10 +5280,10 @@
         <v>113</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>122</v>
@@ -5298,7 +5298,7 @@
         <v>84</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>129</v>
@@ -5357,10 +5357,10 @@
         <v>113</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>132</v>
@@ -5369,7 +5369,7 @@
         <v>133</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>134</v>
@@ -5431,19 +5431,19 @@
         <v>113</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>129</v>
@@ -5505,22 +5505,22 @@
         <v>113</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>146</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="P31" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>89</v>
@@ -5579,19 +5579,19 @@
         <v>113</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>129</v>
@@ -5650,19 +5650,19 @@
         <v>113</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>154</v>
       </c>
       <c r="L33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>129</v>
@@ -5721,10 +5721,10 @@
         <v>113</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>155</v>
@@ -5769,7 +5769,7 @@
         <v>150</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -5792,25 +5792,25 @@
         <v>113</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="J35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="S35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>116</v>
@@ -5845,10 +5845,10 @@
         <v>113</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>116</v>
@@ -5863,7 +5863,7 @@
         <v>90</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>119</v>
@@ -5916,10 +5916,10 @@
         <v>113</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>122</v>
@@ -5934,7 +5934,7 @@
         <v>90</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>129</v>
@@ -5993,10 +5993,10 @@
         <v>113</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>132</v>
@@ -6005,7 +6005,7 @@
         <v>133</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>134</v>
@@ -6067,19 +6067,19 @@
         <v>113</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>129</v>
@@ -6129,7 +6129,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>111</v>
@@ -6141,22 +6141,22 @@
         <v>113</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="P40" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>95</v>
@@ -6215,19 +6215,19 @@
         <v>113</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>129</v>
@@ -6286,19 +6286,19 @@
         <v>113</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>154</v>
       </c>
       <c r="L42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>129</v>
@@ -6357,10 +6357,10 @@
         <v>113</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>155</v>
@@ -6405,7 +6405,7 @@
         <v>150</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -6428,25 +6428,25 @@
         <v>113</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="J44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="S44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T44" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V44" s="4" t="s">
         <v>116</v>
@@ -6481,10 +6481,10 @@
         <v>113</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>116</v>
@@ -6499,7 +6499,7 @@
         <v>96</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>119</v>
@@ -6552,10 +6552,10 @@
         <v>113</v>
       </c>
       <c r="H46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>122</v>
@@ -6570,7 +6570,7 @@
         <v>96</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>129</v>
@@ -6629,10 +6629,10 @@
         <v>113</v>
       </c>
       <c r="H47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>132</v>
@@ -6641,7 +6641,7 @@
         <v>133</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>134</v>
@@ -6703,19 +6703,19 @@
         <v>113</v>
       </c>
       <c r="H48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L48" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>129</v>
@@ -6777,19 +6777,19 @@
         <v>113</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>129</v>
@@ -6848,19 +6848,19 @@
         <v>113</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>154</v>
       </c>
       <c r="L50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>129</v>
@@ -6919,10 +6919,10 @@
         <v>113</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>155</v>
@@ -6967,7 +6967,7 @@
         <v>150</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -6990,25 +6990,25 @@
         <v>113</v>
       </c>
       <c r="H52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="J52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R52" s="4" t="s">
+      <c r="S52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T52" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T52" s="4" t="s">
+      <c r="U52" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>116</v>
@@ -7043,10 +7043,10 @@
         <v>113</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>116</v>
@@ -7061,7 +7061,7 @@
         <v>106</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>119</v>
@@ -7114,10 +7114,10 @@
         <v>113</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>122</v>
@@ -7132,7 +7132,7 @@
         <v>106</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>129</v>
@@ -7191,10 +7191,10 @@
         <v>113</v>
       </c>
       <c r="H55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>132</v>
@@ -7203,7 +7203,7 @@
         <v>133</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>134</v>
@@ -7265,10 +7265,10 @@
         <v>113</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>137</v>
@@ -7333,10 +7333,10 @@
         <v>113</v>
       </c>
       <c r="H57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>151</v>
@@ -7398,10 +7398,10 @@
         <v>113</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>155</v>
@@ -7446,7 +7446,7 @@
         <v>150</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="30" x14ac:dyDescent="0.25">
@@ -7469,25 +7469,25 @@
         <v>113</v>
       </c>
       <c r="H59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="J59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R59" s="4" t="s">
+      <c r="S59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T59" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T59" s="4" t="s">
+      <c r="U59" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>116</v>
@@ -7522,10 +7522,10 @@
         <v>113</v>
       </c>
       <c r="H60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>116</v>
@@ -7540,7 +7540,7 @@
         <v>101</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>119</v>
@@ -7593,10 +7593,10 @@
         <v>113</v>
       </c>
       <c r="H61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>122</v>
@@ -7611,7 +7611,7 @@
         <v>101</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>129</v>
@@ -7670,10 +7670,10 @@
         <v>113</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>132</v>
@@ -7682,7 +7682,7 @@
         <v>133</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>134</v>
@@ -7744,19 +7744,19 @@
         <v>113</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L63" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="R63" s="4" t="s">
         <v>129</v>
@@ -7818,19 +7818,19 @@
         <v>113</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>151</v>
       </c>
       <c r="L64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="R64" s="4" t="s">
         <v>129</v>
@@ -7889,10 +7889,10 @@
         <v>113</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>155</v>
@@ -7937,7 +7937,7 @@
         <v>150</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -7960,25 +7960,25 @@
         <v>113</v>
       </c>
       <c r="H66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="J66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R66" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R66" s="4" t="s">
+      <c r="S66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T66" s="4" t="s">
+      <c r="U66" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="V66" s="4" t="s">
         <v>116</v>
